--- a/Excercise.xlsx
+++ b/Excercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER_5\ACC101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER_5\ACC101\Excersie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251EDCB-8F6F-40F2-A7CA-6E0834B1ECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF571B47-F29D-4C9B-879F-DFEB155453DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06633DE2-A490-434C-AC65-1690C6EFCE70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{06633DE2-A490-434C-AC65-1690C6EFCE70}"/>
   </bookViews>
   <sheets>
     <sheet name="1.7A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>ASSETS</t>
   </si>
@@ -276,11 +276,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +319,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -358,7 +374,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,7 +388,6 @@
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
@@ -411,6 +425,26 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E05C52-B757-44CE-9A87-F8AEF2B58776}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -746,24 +780,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -985,56 +1019,56 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="16"/>
       <c r="D18">
         <v>12000</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="F19" t="s">
         <v>37</v>
       </c>
       <c r="G19">
         <v>5200</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="13"/>
       <c r="D20">
         <v>-1000</v>
       </c>
@@ -1053,10 +1087,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="13"/>
       <c r="D21">
         <v>-2500</v>
       </c>
@@ -1066,10 +1100,10 @@
       <c r="G21">
         <v>300000</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -1118,65 +1152,65 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="17"/>
       <c r="D26">
         <v>30000</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="19"/>
       <c r="D28">
         <v>60000</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="17"/>
       <c r="D29">
         <v>8500</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="17"/>
       <c r="D31">
         <v>-1800</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="3">
         <f>SUM(D26:D31)</f>
         <v>96700</v>
@@ -1212,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88A1DC6-C4F0-47FE-9122-C71733F7D88A}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,10 +1269,10 @@
     <col min="13" max="13" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="8.88671875" style="5"/>
     <col min="17" max="17" width="23.6640625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="8.88671875" style="5"/>
     <col min="22" max="22" width="18.33203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" style="5"/>
     <col min="25" max="25" width="13.44140625" style="5" customWidth="1"/>
     <col min="26" max="26" width="11.109375" style="5" bestFit="1" customWidth="1"/>
@@ -1246,663 +1280,768 @@
     <col min="28" max="28" width="14.44140625" style="5" customWidth="1"/>
     <col min="29" max="32" width="8.88671875" style="5"/>
     <col min="33" max="33" width="13.33203125" style="5" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="Y2" s="23" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="Y2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AE2" s="23" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AE2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="25">
         <v>45413</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="27">
         <v>60000</v>
       </c>
-      <c r="J3" s="5">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="J3" s="27">
         <v>60000</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="P3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="5">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="31">
         <f>SUM(L7:L11)</f>
         <v>10400</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="5">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="27">
         <v>0</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23" t="s">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="23"/>
-      <c r="AE3" s="24" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AE3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AI3" s="5">
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27">
         <f>SUM(AH4:AH9)</f>
         <v>4020</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="26">
         <v>45413</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="29">
         <v>-3200</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29">
         <v>-3200</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="T4" s="24" t="s">
+      <c r="Q4" s="22"/>
+      <c r="R4" s="31"/>
+      <c r="T4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="Y4" s="5" t="s">
+      <c r="U4" s="22"/>
+      <c r="W4" s="27"/>
+      <c r="Y4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="27">
         <f>SUM(B3:B18)</f>
         <v>61140</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AA4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="24"/>
-      <c r="AE4" s="22" t="s">
+      <c r="AB4" s="22"/>
+      <c r="AE4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="5">
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="27">
         <v>-3200</v>
       </c>
+      <c r="AI4" s="27"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="25">
         <v>45415</v>
       </c>
-      <c r="D5" s="5">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27">
         <v>1680</v>
       </c>
-      <c r="H5" s="5">
+      <c r="E5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27">
         <v>1680</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="Q5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="31">
         <v>-3200</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="25"/>
-      <c r="W5" s="5">
+      <c r="V5" s="23"/>
+      <c r="W5" s="27">
         <v>60000</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="27">
         <f>SUM(D5)</f>
         <v>1680</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="27">
         <f>SUM(W5:W8)</f>
         <v>62760</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="5">
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="27">
         <v>-800</v>
       </c>
+      <c r="AI5" s="27"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="26">
         <v>45417</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="29">
         <v>-800</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29">
         <v>-800</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="31">
         <v>-800</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="U6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="W6" s="5">
+      <c r="V6" s="23"/>
+      <c r="W6" s="27">
         <f>SUM(R3,R11)</f>
         <v>3960</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AB6" s="27"/>
+      <c r="AE6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="5">
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="27">
         <v>-1700</v>
       </c>
+      <c r="AI6" s="27"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="25">
         <v>45420</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="27">
         <v>4600</v>
       </c>
-      <c r="L7" s="5">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27">
         <v>4600</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="M7" s="27"/>
+      <c r="Q7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="31">
         <v>-1700</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="AA7" s="10" t="s">
+      <c r="U7" s="22"/>
+      <c r="W7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="27">
         <v>60</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="5">
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="27">
         <v>-200</v>
       </c>
+      <c r="AI7" s="27"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="26">
         <v>45424</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29">
         <v>3000</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29">
         <v>3000</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="Q8" s="8" t="s">
+      <c r="M8" s="29"/>
+      <c r="Q8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="31">
         <v>-60</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="27">
         <v>-1200</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12" t="s">
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="27">
         <f>SUM(Z4:Z5)</f>
         <v>62820</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="27">
         <f>SUM(AB5:AB7)</f>
         <v>62820</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="5">
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="27">
         <v>-480</v>
       </c>
+      <c r="AI8" s="27"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="25">
         <v>45427</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="27">
         <v>-850</v>
       </c>
-      <c r="M9" s="5">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27">
         <v>-850</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="31">
         <v>-200</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="W9" s="27"/>
+      <c r="AE9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="5">
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="27">
         <f>SUM(L7:L11)</f>
         <v>10400</v>
       </c>
+      <c r="AI9" s="27"/>
     </row>
     <row r="10" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="26">
         <v>45432</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="29">
         <v>3000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="29">
         <v>-3000</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="31">
         <v>-480</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="5">
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="27">
         <f>SUM(W5:W8)</f>
         <v>62760</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AE10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AI10" s="5">
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27">
         <f>SUM(AH11)</f>
         <v>-1680</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="25">
         <v>45434</v>
       </c>
-      <c r="C11" s="5">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27">
         <v>2800</v>
       </c>
-      <c r="L11" s="5">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27">
         <v>2800</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="M11" s="27"/>
+      <c r="P11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="5">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="31">
         <f>SUM(R5:R10)</f>
         <v>-6440</v>
       </c>
-      <c r="AE11" s="22" t="s">
+      <c r="AE11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="5">
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="27">
         <v>-1680</v>
       </c>
+      <c r="AI11" s="27"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="26">
         <v>45437</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="29">
         <v>2800</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="29">
         <v>-2800</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="P12" s="24" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="P12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="5">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="31">
         <f>SUM(R3:R10)</f>
         <v>3960</v>
       </c>
-      <c r="AE12" s="24" t="s">
+      <c r="AE12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AI12" s="5">
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27">
         <f>SUM(AH13:AH14)</f>
         <v>58800</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="25">
         <v>45438</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="27">
         <v>-1680</v>
       </c>
-      <c r="H13" s="5">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27">
         <v>-1680</v>
       </c>
-      <c r="AE13" s="22" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="AE13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="5">
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="27">
         <v>60000</v>
       </c>
+      <c r="AI13" s="27"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="26">
         <v>45439</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
         <v>60</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7">
+      <c r="I14" s="6"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29">
         <v>-60</v>
       </c>
-      <c r="AE14" s="22" t="s">
+      <c r="AE14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="5">
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="27">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>45440</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="27">
         <v>-850</v>
       </c>
-      <c r="M15" s="5">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27">
         <v>-850</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="AE15" s="23" t="s">
+      <c r="AE15" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="5">
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="27">
         <f>SUM(AI3:AI12)</f>
         <v>61140</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="26">
         <v>45442</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="29">
         <v>-200</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29">
         <v>-200</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>45442</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="27">
         <v>-480</v>
       </c>
-      <c r="M17" s="5">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27">
         <v>-480</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <v>45443</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="29">
         <v>-1200</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29">
         <v>-1200</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="27">
         <f>SUM(B3:B18)</f>
         <v>61140</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="27">
         <f>SUM(C8:C12)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="27">
         <f>SUM(D5)</f>
         <v>1680</v>
       </c>
-      <c r="H19" s="5">
+      <c r="E19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27">
         <f>SUM(H5:H14)</f>
         <v>60</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="27">
         <f>SUM(J3)</f>
         <v>60000</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="27">
         <f>SUM(K18)</f>
         <v>-1200</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="27">
         <f>SUM(L7:L11)</f>
         <v>10400</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="27">
         <f>SUM(M4:M17)</f>
         <v>-6440</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="14">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E20" s="30">
         <f>SUM(B19:D19)</f>
         <v>62820</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="F20" s="12"/>
+      <c r="G20" s="30">
         <f>SUM(H19:M19)</f>
         <v>62820</v>
       </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G26" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -1947,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306E10DA-292A-4E02-8464-E19E124E59CF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
